--- a/biology/Zoologie/Eumorpha/Eumorpha.xlsx
+++ b/biology/Zoologie/Eumorpha/Eumorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eumorpha regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae et de la tribu des Philampelini.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se trouve principalement en Amérique du Nord et du Sud.
 </t>
@@ -542,18 +556,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par l’entomologiste allemand Hübner en 1807[1].
-L'espèce type est Eumorpha labruscae (Linnaeus, 1758)
-Synonymie
-Pholus Hübner, 1819
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l’entomologiste allemand Hübner en 1807.
+L'espèce type est Eumorpha labruscae (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eumorpha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pholus Hübner, 1819
 Daphnis Hübner, 1819
 Argeus Hübner, 1819
-Dupo Hübner, 1819[2]
-Philampelus Harris, 1839[3]
-Taxinomie
-Liste des espèces
+Dupo Hübner, 1819
+Philampelus Harris, 1839</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eumorpha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Eumorpha achemon (Drury, 1773)
 Eumorpha adamsi (Rothschild &amp; Jordan, 1903)
 Eumorpha analis (Rothschild &amp; Jordan, 1903)
@@ -565,7 +649,7 @@
 Eumorpha fasciata (Sulzer, 1776)
 Eumorpha intermedia (Clark, 1917)
 Eumorpha labruscae (Linnaeus, 1758)
-Eumorpha megaeacus (Hübner, [1819])
+Eumorpha megaeacus (Hübner, )
 Eumorpha mirificatus (Grote, 1874)
 Eumorpha neuburgeri (Rothschild &amp; Jordan, 1903)
 Eumorpha obliquus (Rothschild &amp; Jordan, 1903)
